--- a/xlsx/军火_intext.xlsx
+++ b/xlsx/军火_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
   <si>
     <t>军火</t>
   </si>
@@ -29,19 +29,19 @@
     <t>冷兵器</t>
   </si>
   <si>
-    <t>政策_政策_美國_军火</t>
+    <t>政策_政策_美国_军火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>攻擊</t>
+    <t>攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5</t>
   </si>
   <si>
-    <t>狩獵</t>
+    <t>狩猎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%9B</t>
   </si>
   <si>
-    <t>自衛</t>
+    <t>自卫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%A3%92</t>
   </si>
   <si>
@@ -107,19 +104,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D</t>
   </si>
   <si>
-    <t>劍</t>
+    <t>剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D</t>
   </si>
   <si>
-    <t>槍</t>
+    <t>枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%B2%E9%9A%9B%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>洲際彈道飛彈</t>
+    <t>洲际弹道飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%AD%A6%E5%99%A8</t>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E8%88%AA%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>導航系統</t>
+    <t>导航系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>雷達</t>
+    <t>雷达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%8A%80%E6%9C%AF%E4%B8%8E%E8%A3%85%E5%A4%87</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%97%A5</t>
   </si>
   <si>
-    <t>火藥</t>
+    <t>火药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%85%B5%E5%99%A8</t>
   </si>
   <si>
-    <t>熱兵器</t>
+    <t>热兵器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99</t>
@@ -209,43 +206,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E6%8A%95%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>質量投射器</t>
+    <t>质量投射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E8%BB%8C%E7%A0%B2</t>
   </si>
   <si>
-    <t>磁軌砲</t>
+    <t>磁轨砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%9F%B3%E6%A9%9F</t>
   </si>
   <si>
-    <t>投石機</t>
+    <t>投石机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A6%B4%E5%BD%88</t>
   </si>
   <si>
-    <t>手榴彈</t>
+    <t>手榴弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>手槍</t>
+    <t>手枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%A7%8D</t>
   </si>
   <si>
-    <t>步槍</t>
+    <t>步枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%A0%B2</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7</t>
@@ -269,25 +266,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲音</t>
+    <t>声音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E7%88%86</t>
   </si>
   <si>
-    <t>聲爆</t>
+    <t>声爆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中古世紀</t>
+    <t>中古世纪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Personal_weapon</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%85%B5%E5%99%A8</t>
   </si>
   <si>
-    <t>輕兵器</t>
+    <t>轻兵器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SALW</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8D</t>
   </si>
   <si>
-    <t>機槍</t>
+    <t>机枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%B4%E5%BC%B9%E5%8F%91%E5%B0%84%E5%99%A8</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9D%A6%E5%85%8B%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>反坦克導彈</t>
+    <t>反坦克导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%BF%E6%90%BA%E5%BC%8F%E9%98%B2%E7%A9%BA%E5%AF%BC%E5%BC%B9</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AB%E6%93%8A%E7%A0%B2</t>
   </si>
   <si>
-    <t>迫擊砲</t>
+    <t>迫击砲</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/explosive_weapon</t>
@@ -377,19 +374,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%98%E5%85%B5</t>
   </si>
   <si>
-    <t>傘兵</t>
+    <t>伞兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>戰鬥車輛</t>
+    <t>战斗车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E8%BB%8A%E7%82%AE</t>
   </si>
   <si>
-    <t>列車炮</t>
+    <t>列车炮</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_aircraft_weapons</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>飛機</t>
+    <t>飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直昇機</t>
+    <t>直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%B0%B4%E8%89%87</t>
   </si>
   <si>
-    <t>潛水艇</t>
+    <t>潜水艇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space_weapon</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E6%A9%9F%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>軍用機器人</t>
+    <t>军用机器人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%89%A9%E8%B4%A8%E6%AD%A6%E5%99%A8</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>反物質</t>
+    <t>反物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%84%E7%AE%AD</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
+    <t>化学武器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Directed-energy_weapon</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E6%A2%B0</t>
   </si>
   <si>
-    <t>槍械</t>
+    <t>枪械</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Improvised_weapons</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E7%87%92%E5%BD%88</t>
   </si>
   <si>
-    <t>燃燒彈</t>
+    <t>燃烧弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%87%B4%E5%91%BD%E6%80%A7%E6%AD%A6%E5%99%A8</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>導彈</t>
+    <t>导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%A8%AD%E9%98%B2%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>反設防武器</t>
+    <t>反设防武器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-personnel_weapon</t>
@@ -581,19 +578,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%BC%BB%E5%B0%84%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>反輻射飛彈</t>
+    <t>反辐射飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%A1%9B%E6%98%9F%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>反衛星武器</t>
+    <t>反卫星武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-submarine_weapon</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9D%A6%E5%85%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>反坦克戰</t>
+    <t>反坦克战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Area_denial_weapons</t>
@@ -635,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>金屬</t>
+    <t>金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>衝突</t>
+    <t>冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>發展</t>
+    <t>发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -659,25 +656,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC</t>
   </si>
   <si>
-    <t>鋼</t>
+    <t>钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%AA%E6%94%AF</t>
@@ -689,25 +686,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%94%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>鐵甲艦</t>
+    <t>铁甲舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E4%BA%8B%E5%8B%99%E8%AE%8A%E9%9D%A9</t>
   </si>
   <si>
-    <t>軍事事務變革</t>
+    <t>军事事务变革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%84%E6%A8%A1%E6%9D%80%E4%BC%A4%E6%80%A7%E6%AD%A6%E5%99%A8</t>
@@ -719,25 +716,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E5%BD%88</t>
   </si>
   <si>
-    <t>原子彈</t>
+    <t>原子弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核武競賽</t>
+    <t>核武竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AF%81%E6%AF%81%E7%81%AD</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%BD%93%E9%98%B2%E5%8D%AB</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E7%A0%B2%E5%BD%88%E8%97%A5%E5%88%80%E6%A2%B0%E7%AE%A1%E5%88%B6%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>槍砲彈藥刀械管制條例</t>
+    <t>枪砲弹药刀械管制条例</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Air_gun_laws</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%82%99%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>軍備控制</t>
+    <t>军备控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%B1%82%E7%A9%BA%E9%97%B4%E6%9D%A1%E7%BA%A6</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E4%B8%8D%E6%93%B4%E6%95%A3%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>核不擴散條約</t>
+    <t>核不扩散条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%A6%E6%AD%A6%E5%99%A8%E5%85%AC%E7%BA%A6</t>
@@ -827,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%AD%A6%E5%99%A8%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>生物武器公約</t>
+    <t>生物武器公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%88%86%E7%82%B8%E5%BC%B9%E8%8D%AF</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>海洋廢棄物</t>
+    <t>海洋废弃物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%B9%B3%E5%8F%B0</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞州</t>
+    <t>马萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8%E8%B4%B8%E6%98%93%E6%9D%A1%E7%BA%A6</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E5%87%BB%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -923,9 +920,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E5%BC%B9</t>
   </si>
   <si>
-    <t>导弹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E5%9B%BD%E9%99%85%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
@@ -959,13 +953,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E5%B0%87%E8%8E%AB%E9%82%AA</t>
   </si>
   <si>
-    <t>干將莫邪</t>
+    <t>干将莫邪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%92%E8%BD%85%E5%8A%8D</t>
   </si>
   <si>
-    <t>軒轅劍</t>
+    <t>轩辕剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%95%89%E6%89%87</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E7%81%AB%E8%BC%AA</t>
   </si>
   <si>
-    <t>風火輪</t>
+    <t>风火轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E5%9D%A4%E5%9C%88</t>
@@ -989,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%A4%A9%E7%B6%BE</t>
   </si>
   <si>
-    <t>混天綾</t>
+    <t>混天绫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B0%96%E6%A7%8D</t>
   </si>
   <si>
-    <t>火尖槍</t>
+    <t>火尖枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B0%96%E4%B8%A4%E5%88%83%E5%88%80</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E5%A6%96%E5%AF%B6%E6%9D%96</t>
   </si>
   <si>
-    <t>降妖寶杖</t>
+    <t>降妖宝杖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%99%B8%E6%96%AF</t>
@@ -1037,19 +1031,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%81%86%E4%B9%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>永恆之槍</t>
+    <t>永恒之枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9D%E5%88%A9%E4%B9%8B%E5%8A%8D</t>
   </si>
   <si>
-    <t>勝利之劍</t>
+    <t>胜利之剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%A5%9E%E4%B9%8B%E9%8E%9A</t>
   </si>
   <si>
-    <t>雷神之鎚</t>
+    <t>雷神之锤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E5%A2%A8</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%88%BE%E9%8B%92</t>
   </si>
   <si>
-    <t>提爾鋒</t>
+    <t>提尔锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%96%AF%E7%89%B9%E6%B1%80</t>
@@ -1079,19 +1073,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E4%B8%AD%E5%8A%8D</t>
   </si>
   <si>
-    <t>石中劍</t>
+    <t>石中剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%80%85%E4%B9%8B%E5%8A%8D</t>
   </si>
   <si>
-    <t>王者之劍</t>
+    <t>王者之剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%8F%A1%E5%8A%8D</t>
   </si>
   <si>
-    <t>十握劍</t>
+    <t>十握剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8F%89%E6%88%9F</t>
@@ -1103,13 +1097,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%A4%A9%E7%95%AB%E6%88%9F</t>
   </si>
   <si>
-    <t>方天畫戟</t>
+    <t>方天画戟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%BE%8D%E5%81%83%E6%9C%88%E5%88%80</t>
   </si>
   <si>
-    <t>青龍偃月刀</t>
+    <t>青龙偃月刀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%88%E5%85%AB%E8%9B%87%E7%9F%9B</t>
@@ -1127,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>戰艦</t>
+    <t>战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>國防工業</t>
+    <t>国防工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%9A%B4</t>
@@ -1151,19 +1145,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%85%B7%E6%A7%8D</t>
   </si>
   <si>
-    <t>玩具槍</t>
+    <t>玩具枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>同軸武器</t>
+    <t>同轴武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eurosatory</t>
@@ -1187,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -1199,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -1277,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -1337,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -1379,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -1451,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -1487,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -1529,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -1625,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -1637,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -1703,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -1721,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1799,13 +1793,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1817,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1829,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1853,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1895,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1931,13 +1925,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1949,13 +1943,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1991,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -2003,13 +1997,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -2063,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -2093,7 +2087,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -2135,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -2159,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2835,7 +2829,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -2861,10 +2855,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2890,10 +2884,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2919,10 +2913,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2948,10 +2942,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -2977,10 +2971,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>19</v>
@@ -3006,10 +3000,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3035,10 +3029,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -3064,10 +3058,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3093,10 +3087,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3122,10 +3116,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -3151,10 +3145,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3180,10 +3174,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3209,10 +3203,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3238,10 +3232,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -3267,10 +3261,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -3296,10 +3290,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -3325,10 +3319,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -3354,10 +3348,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3383,10 +3377,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -3412,10 +3406,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -3441,10 +3435,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3470,10 +3464,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3499,10 +3493,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3528,10 +3522,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3557,10 +3551,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3586,10 +3580,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -3615,10 +3609,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3644,10 +3638,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3673,10 +3667,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -3702,10 +3696,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3731,10 +3725,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -3760,10 +3754,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3789,10 +3783,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3818,10 +3812,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3847,10 +3841,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3876,10 +3870,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3905,10 +3899,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3934,10 +3928,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -3963,10 +3957,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3992,10 +3986,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4021,10 +4015,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4050,10 +4044,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4079,10 +4073,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4108,10 +4102,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4137,10 +4131,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4166,10 +4160,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4195,10 +4189,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4224,10 +4218,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4253,10 +4247,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4282,10 +4276,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4311,10 +4305,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4340,10 +4334,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4369,10 +4363,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -4398,10 +4392,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4427,10 +4421,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4456,10 +4450,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4485,10 +4479,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4514,10 +4508,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4543,10 +4537,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4572,10 +4566,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4601,10 +4595,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4630,10 +4624,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>9</v>
@@ -4659,10 +4653,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4688,10 +4682,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4717,10 +4711,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4746,10 +4740,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4775,10 +4769,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4804,10 +4798,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4833,10 +4827,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4862,10 +4856,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4891,10 +4885,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4920,10 +4914,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4949,10 +4943,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4978,10 +4972,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5007,10 +5001,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5036,10 +5030,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5065,10 +5059,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5094,10 +5088,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -5123,10 +5117,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5152,10 +5146,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5181,10 +5175,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5210,10 +5204,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5239,10 +5233,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5268,10 +5262,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5297,10 +5291,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5326,10 +5320,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5355,10 +5349,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5384,10 +5378,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5413,10 +5407,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5442,10 +5436,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5471,10 +5465,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5500,10 +5494,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5529,10 +5523,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5558,10 +5552,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>7</v>
@@ -5587,10 +5581,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>9</v>
@@ -5616,10 +5610,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5645,10 +5639,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5674,10 +5668,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5703,10 +5697,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5732,10 +5726,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5761,10 +5755,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5790,10 +5784,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5819,10 +5813,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5848,10 +5842,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5877,10 +5871,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5906,10 +5900,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5935,10 +5929,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5964,10 +5958,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5993,10 +5987,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6022,10 +6016,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6051,10 +6045,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6080,10 +6074,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6109,10 +6103,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6138,10 +6132,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6167,10 +6161,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6196,10 +6190,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6225,10 +6219,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6254,10 +6248,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6283,10 +6277,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6312,10 +6306,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6341,10 +6335,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6370,10 +6364,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6399,10 +6393,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6428,10 +6422,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6457,10 +6451,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -6486,10 +6480,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6515,10 +6509,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6544,10 +6538,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6573,10 +6567,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6602,10 +6596,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6631,10 +6625,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>11</v>
@@ -6660,10 +6654,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6689,10 +6683,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -6718,10 +6712,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>7</v>
@@ -6747,10 +6741,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6776,10 +6770,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6805,10 +6799,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6834,10 +6828,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6863,10 +6857,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6892,10 +6886,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6921,10 +6915,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6950,10 +6944,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6979,10 +6973,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -7008,10 +7002,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7037,10 +7031,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7066,10 +7060,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7095,10 +7089,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7124,10 +7118,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7153,10 +7147,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7182,10 +7176,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7211,10 +7205,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7240,10 +7234,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7269,10 +7263,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7298,10 +7292,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7327,10 +7321,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7356,10 +7350,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7385,10 +7379,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7414,10 +7408,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7443,10 +7437,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7472,10 +7466,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7501,10 +7495,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7530,10 +7524,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7559,10 +7553,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7588,10 +7582,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7617,10 +7611,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7646,10 +7640,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7675,10 +7669,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7704,10 +7698,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7733,10 +7727,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7762,10 +7756,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7791,10 +7785,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7820,10 +7814,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7849,10 +7843,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7878,10 +7872,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7907,10 +7901,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7936,10 +7930,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7965,10 +7959,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7994,10 +7988,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8023,10 +8017,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8052,10 +8046,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8081,10 +8075,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8110,10 +8104,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>6</v>
@@ -8139,10 +8133,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>28</v>
@@ -8168,10 +8162,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8197,10 +8191,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8226,10 +8220,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8255,10 +8249,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8284,10 +8278,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F199" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8313,10 +8307,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8342,10 +8336,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F201" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8371,10 +8365,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F202" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8400,10 +8394,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8429,10 +8423,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F204" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8458,10 +8452,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F205" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8487,10 +8481,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F206" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8516,10 +8510,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F207" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8545,10 +8539,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8574,10 +8568,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F209" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8603,10 +8597,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F210" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8632,10 +8626,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8661,10 +8655,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F212" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8690,10 +8684,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F213" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8719,10 +8713,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F214" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8748,10 +8742,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F215" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8777,10 +8771,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F216" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8806,10 +8800,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8835,10 +8829,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8864,10 +8858,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8893,10 +8887,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8922,10 +8916,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8951,10 +8945,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8980,10 +8974,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9009,10 +9003,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9038,10 +9032,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9067,10 +9061,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9096,10 +9090,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9125,10 +9119,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9154,10 +9148,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9183,10 +9177,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9212,10 +9206,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9241,10 +9235,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9270,10 +9264,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9299,10 +9293,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9328,10 +9322,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9357,10 +9351,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9386,10 +9380,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9415,10 +9409,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>8</v>
@@ -9444,10 +9438,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F239" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9473,10 +9467,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9502,10 +9496,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9531,10 +9525,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9560,10 +9554,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9589,10 +9583,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G244" t="n">
         <v>10</v>
@@ -9618,10 +9612,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9647,10 +9641,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9676,10 +9670,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9705,10 +9699,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9734,10 +9728,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9763,10 +9757,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -9792,10 +9786,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9821,10 +9815,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9850,10 +9844,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9879,10 +9873,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9908,10 +9902,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9937,10 +9931,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9966,10 +9960,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9995,10 +9989,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10024,10 +10018,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10053,10 +10047,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10082,10 +10076,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10111,10 +10105,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10140,10 +10134,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10169,10 +10163,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10198,10 +10192,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10227,10 +10221,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10256,10 +10250,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10285,10 +10279,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10314,10 +10308,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10343,10 +10337,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10372,10 +10366,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10401,10 +10395,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G272" t="n">
         <v>5</v>
@@ -10430,10 +10424,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10459,10 +10453,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10488,10 +10482,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10517,10 +10511,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10546,10 +10540,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10575,10 +10569,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10604,10 +10598,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10633,10 +10627,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10662,10 +10656,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10691,10 +10685,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F282" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10720,10 +10714,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F283" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10749,10 +10743,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F284" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10778,10 +10772,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F285" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10807,10 +10801,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F286" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -10836,10 +10830,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10865,10 +10859,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10894,10 +10888,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10923,10 +10917,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10952,10 +10946,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10981,10 +10975,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11010,10 +11004,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11039,10 +11033,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11068,10 +11062,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11097,10 +11091,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11126,10 +11120,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11155,10 +11149,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11184,10 +11178,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11213,10 +11207,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11242,10 +11236,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11271,10 +11265,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11300,10 +11294,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11329,10 +11323,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11358,10 +11352,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11387,10 +11381,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11416,10 +11410,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11445,10 +11439,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11474,10 +11468,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11503,10 +11497,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F310" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11532,10 +11526,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F311" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11561,10 +11555,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F312" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11590,10 +11584,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F313" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11619,10 +11613,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F314" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11648,10 +11642,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F315" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11677,10 +11671,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F316" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11706,10 +11700,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F317" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11735,10 +11729,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F318" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11764,10 +11758,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F319" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11793,10 +11787,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F320" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11822,10 +11816,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F321" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11851,10 +11845,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F322" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11880,10 +11874,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F323" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11909,10 +11903,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F324" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11938,10 +11932,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F325" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -11967,10 +11961,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F326" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11996,10 +11990,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F327" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12025,10 +12019,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F328" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G328" t="n">
         <v>5</v>
@@ -12054,10 +12048,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F329" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12083,10 +12077,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F330" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12112,10 +12106,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F331" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12141,10 +12135,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F332" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12170,10 +12164,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F333" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12199,10 +12193,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F334" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12228,10 +12222,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F335" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12257,10 +12251,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F336" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12286,10 +12280,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F337" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12315,10 +12309,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F338" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12344,10 +12338,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F339" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12373,10 +12367,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F340" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12402,10 +12396,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F341" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12431,10 +12425,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F342" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12460,10 +12454,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F343" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12489,10 +12483,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F344" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12518,10 +12512,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F345" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12547,10 +12541,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F346" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12576,10 +12570,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F347" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12605,10 +12599,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F348" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12634,10 +12628,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F349" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12663,10 +12657,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F350" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12692,10 +12686,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F351" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12721,10 +12715,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F352" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12750,10 +12744,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F353" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12779,10 +12773,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F354" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12808,10 +12802,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F355" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -12837,10 +12831,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F356" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12866,10 +12860,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F357" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12895,10 +12889,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F358" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12924,10 +12918,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F359" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -12953,10 +12947,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F360" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12982,10 +12976,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F361" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G361" t="n">
         <v>9</v>
@@ -13011,10 +13005,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>715</v>
+      </c>
+      <c r="F362" t="s">
         <v>717</v>
-      </c>
-      <c r="F362" t="s">
-        <v>719</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
